--- a/Kosten 2023.xlsx
+++ b/Kosten 2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PaulDriessens\OneDrive - Energyhouse B.V\Documenten\Paul's map\analyse_fruitteler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://greenfootenergy-my.sharepoint.com/personal/p_driessens_energyhouse_nl/Documents/Documenten/Paul's map/analyse_fruitteler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9375C88D-1499-4056-B4C1-A2DCA54E4D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{9375C88D-1499-4056-B4C1-A2DCA54E4D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{265062C6-E189-4FF4-889E-B54B86AD2940}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="38700" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -537,10 +537,20 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="I2" sqref="H2:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="67.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
